--- a/data/results/Fitness.xlsx
+++ b/data/results/Fitness.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Desktop/Bull_Lab/T7Attenuation/Promoter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/t7-attenuation/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="32">
   <si>
     <t>Strain</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>910L2-init</t>
-  </si>
-  <si>
-    <t>910v2_L2</t>
   </si>
   <si>
     <t>910L2-evo</t>
@@ -616,7 +613,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="D49" sqref="D49:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1615,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E50" s="5">
         <v>42969</v>
@@ -1635,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E51" s="5">
         <v>42970</v>
@@ -1655,7 +1652,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E52" s="5">
         <v>42971</v>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>35.46</v>
@@ -1675,7 +1672,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E53" s="5">
         <v>42970</v>
@@ -1686,7 +1683,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>35.06</v>
@@ -1695,7 +1692,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E54" s="5">
         <v>42971</v>
@@ -1706,7 +1703,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>36.29</v>
@@ -1715,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E55" s="5">
         <v>42972</v>

--- a/data/results/Fitness.xlsx
+++ b/data/results/Fitness.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28940" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="5140" yWindow="460" windowWidth="27380" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="50">
   <si>
     <t>Strain</t>
   </si>
@@ -47,9 +47,6 @@
     <t>9i2evo</t>
   </si>
   <si>
-    <t>910i13evo</t>
-  </si>
-  <si>
     <t>10i1</t>
   </si>
   <si>
@@ -123,6 +120,63 @@
   </si>
   <si>
     <t>910L2-evo</t>
+  </si>
+  <si>
+    <t>910i3evo</t>
+  </si>
+  <si>
+    <t>Passaged</t>
+  </si>
+  <si>
+    <t>Evolved</t>
+  </si>
+  <si>
+    <t>Ancestor</t>
+  </si>
+  <si>
+    <t>8st-9</t>
+  </si>
+  <si>
+    <t>strain_rna</t>
+  </si>
+  <si>
+    <t>8st-910</t>
+  </si>
+  <si>
+    <t>8st-9evo</t>
+  </si>
+  <si>
+    <t>8st-910evo</t>
+  </si>
+  <si>
+    <t>phi9v2</t>
+  </si>
+  <si>
+    <t>phi910v2</t>
+  </si>
+  <si>
+    <t>11-44</t>
+  </si>
+  <si>
+    <t>11-44-phi9v2</t>
+  </si>
+  <si>
+    <t>11-44-phi10</t>
+  </si>
+  <si>
+    <t>11-44-phi910v2</t>
+  </si>
+  <si>
+    <t>11-44-phi910v2evo</t>
+  </si>
+  <si>
+    <t>phi910v2evo</t>
+  </si>
+  <si>
+    <t>910L2</t>
+  </si>
+  <si>
+    <t>910L2evo</t>
   </si>
 </sst>
 </file>
@@ -231,7 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -240,6 +294,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -610,18 +666,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:D55"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,19 +686,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -649,19 +712,25 @@
         <v>31.21</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4">
         <v>42586</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -669,19 +738,25 @@
         <v>30.5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4">
         <v>42591</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -689,19 +764,25 @@
         <v>30.62</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4">
         <v>42592</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -709,19 +790,25 @@
         <v>29.51</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>42650</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,19 +816,25 @@
         <v>29.85</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4">
         <v>42718</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,19 +842,25 @@
         <v>32.369999999999997</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
         <v>42935</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -769,19 +868,25 @@
         <v>26.43</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5">
         <v>42674</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -789,19 +894,25 @@
         <v>27.33</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5">
         <v>42676</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -809,19 +920,25 @@
         <v>27.72</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5">
         <v>42956</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -829,19 +946,25 @@
         <v>36.97</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
         <v>42719</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -849,19 +972,25 @@
         <v>42.13</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5">
         <v>42723</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -869,19 +998,25 @@
         <v>40.409999999999997</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="5">
         <v>42724</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -889,836 +1024,1052 @@
         <v>40.64</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5">
         <v>42373</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>37.64</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="5">
         <v>42772</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>38.1</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5">
         <v>42773</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>37.049999999999997</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="5">
         <v>42775</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>37.72</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="5">
         <v>42775</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>40.28</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="5">
         <v>42782</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>41.82</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="5">
         <v>42786</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>40.880000000000003</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="5">
         <v>42793</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>47.35</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="5">
         <v>42789</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>42.85</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="5">
         <v>42793</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>45.05</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="5">
         <v>42794</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>40.86</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="5">
         <v>42860</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>41.03</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="5">
         <v>42863</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>41.27</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="5">
         <v>42864</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>30.25</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="5">
         <v>42885</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>29.94</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="5">
         <v>42886</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>30.03</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="5">
         <v>42894</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>38.06</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="5">
         <v>42887</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>39.93</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="5">
         <v>42891</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>39.36</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="5">
         <v>42892</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>37.380000000000003</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="5">
         <v>42894</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>38.380000000000003</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="5">
         <v>42905</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>38.78</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="5">
         <v>42906</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>33.82</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="5">
         <v>42897</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>34.85</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="5">
         <v>42908</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>35.729999999999997</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="5">
         <v>42936</v>
       </c>
       <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="B40">
         <v>29.11</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40" s="5">
         <v>42929</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>29.82</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="5">
         <v>42933</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42">
         <v>29.49</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" s="5">
         <v>42934</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>33.67</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" s="5">
         <v>42950</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
         <v>32.92</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E44" s="5">
         <v>42954</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>33.520000000000003</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" s="5">
         <v>42955</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>37.619999999999997</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5">
         <v>42905</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>38.44</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="5">
         <v>42906</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48">
         <v>38.35</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="5">
         <v>42908</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>39.35</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="5">
         <v>42914</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>32.61</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5">
         <v>42969</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>33.200000000000003</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="5">
         <v>42970</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>34.42</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="5">
         <v>42971</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>35.46</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="5">
         <v>42970</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>35.06</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5">
         <v>42971</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>36.29</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55" s="5">
         <v>42972</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
